--- a/biology/Botanique/Monstera_adansonii/Monstera_adansonii.xlsx
+++ b/biology/Botanique/Monstera_adansonii/Monstera_adansonii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Monstera adansonii est une espèce de plantes à fleurs du genre Monstera et de la famille des aracées. Elle a été nommée en l'honneur de Michel Adanson par Heinrich Wilhelm Schott en 1830[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Monstera adansonii est une espèce de plantes à fleurs du genre Monstera et de la famille des aracées. Elle a été nommée en l'honneur de Michel Adanson par Heinrich Wilhelm Schott en 1830.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Synonymes:
 Dracontium pertusum,
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette liane est une plante vivace grimpante qui possède des feuilles perforées, ovales ou elliptiques, de 19 cm à 55 cm de longueur et de 8 cm à 28 cm de largeur, au bout aigu. Leur base est tronquée ou cunéiforme. Son pétiole, qui mesure de 10 cm à 45 cm, est glabre.
 Ses fleurs bisexuées, de couleur jaunâtre, sont groupées en spadices axillaires et cylindriques, mesurant de 4,5 cm à 18 cm, pour un diamètre au maximum de 2 cm. Les spadices possèdent une spathe convolutée mesurant de 10 cm à 28 cm à l'apex acuminé et blanchâtre.
@@ -575,7 +591,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">On rencontre Monstera adansonii dans les forêts humides de l'Amérique néotropicale du Mexique, jusqu'au Brésil, ainsi qu'aux Antilles. Elle croît jusqu'à 1 000 mètres d'altitude.
 </t>
